--- a/Project_clone/Report/primer_data.xlsx
+++ b/Project_clone/Report/primer_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t xml:space="preserve">Typ av analys</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t xml:space="preserve">AAGACGAAAAGACCCCGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16S_fisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACGAAGACCCTTTGGAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGGTCGTAAACCCCCTCGT</t>
   </si>
   <si>
     <t xml:space="preserve">Art</t>
@@ -472,10 +481,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -690,6 +699,23 @@
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -721,30 +747,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,13 +778,13 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,13 +792,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -806,162 +832,162 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,71 +1003,71 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Project_clone/Report/primer_data.xlsx
+++ b/Project_clone/Report/primer_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t xml:space="preserve">Typ av analys</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t xml:space="preserve">AGGTCGTAAACCCCCTCGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V16S_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACGAGAAGACCCYRYGRARCTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCTHRRRANAGGATTGCGCTGTTA</t>
   </si>
   <si>
     <t xml:space="preserve">Art</t>
@@ -484,7 +493,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,7 +724,18 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -747,30 +767,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,13 +798,13 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,13 +812,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -832,162 +852,162 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,71 +1023,71 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Project_clone/Report/primer_data.xlsx
+++ b/Project_clone/Report/primer_data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t xml:space="preserve">Typ av analys</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t xml:space="preserve">V16S_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groddjur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACACCGCCCGTCACCCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAYACTTACCATGTTACGACTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batra_F_L3541, batra_R_H3596</t>
   </si>
 </sst>
 </file>
@@ -188,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -215,6 +227,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +293,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,18 +313,124 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.73"/>
@@ -308,7 +439,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -328,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -345,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -365,7 +496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -382,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -399,7 +530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -416,7 +547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -433,7 +564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -450,7 +581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -467,7 +598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -484,7 +615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -501,7 +632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -518,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -535,7 +666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -545,11 +676,28 @@
       <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>50</v>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Project_clone/Report/primer_data.xlsx
+++ b/Project_clone/Report/primer_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t xml:space="preserve">Typ av analys</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">AnnatNamn</t>
   </si>
   <si>
+    <t xml:space="preserve">Referens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Däggdjur</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t xml:space="preserve">Mifish</t>
   </si>
   <si>
+    <t xml:space="preserve">Miya et al. 2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Musslor (ITS)</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">batra_F_L3541, batra_R_H3596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentini et al. 2016</t>
   </si>
 </sst>
 </file>
@@ -200,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -227,11 +236,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,12 +297,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -424,10 +424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,73 +458,79 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>60</v>
@@ -532,16 +538,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>60</v>
@@ -549,16 +555,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>60</v>
@@ -566,138 +572,141 @@
     </row>
     <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>56</v>
+      <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Project_clone/Report/primer_data.xlsx
+++ b/Project_clone/Report/primer_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t xml:space="preserve">Typ av analys</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">V16S_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang et al. 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Groddjur</t>
@@ -426,8 +429,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -688,25 +691,28 @@
       <c r="F14" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
